--- a/Datasett/overnatting-i-gjesdal-kommune.xlsx
+++ b/Datasett/overnatting-i-gjesdal-kommune.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\oblig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -984,7 +984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Datasett/overnatting-i-gjesdal-kommune.xlsx
+++ b/Datasett/overnatting-i-gjesdal-kommune.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>nord</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Gjesdalgjestgiveri</t>
   </si>
   <si>
-    <t>Opstadveien 3 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t>Hotell</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Byrkjedalstunet</t>
   </si>
   <si>
-    <t xml:space="preserve">Byrkjedalstunet 4335 DIRDAL </t>
-  </si>
-  <si>
     <t>6508780.71</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t xml:space="preserve">Søya hytteutleie </t>
   </si>
   <si>
-    <t xml:space="preserve">Søyland 4330 ÅLGÅRD </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hytteutleie </t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Kongeparken Camping</t>
   </si>
   <si>
-    <t>Ålgårdslåtten 3 4330 ÅLGÅRD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kongeparken Camping </t>
   </si>
   <si>
@@ -141,7 +129,31 @@
     <t xml:space="preserve">Giljastølen Camping </t>
   </si>
   <si>
-    <t>Giljagarden 1 4335 DIRDAL</t>
+    <t>Opstadveien</t>
+  </si>
+  <si>
+    <t>ÅLGÅRD</t>
+  </si>
+  <si>
+    <t>DIRDAL</t>
+  </si>
+  <si>
+    <t>Søyland</t>
+  </si>
+  <si>
+    <t>Ålgårdslåtten</t>
+  </si>
+  <si>
+    <t>Giljagarden</t>
+  </si>
+  <si>
+    <t>nummer</t>
+  </si>
+  <si>
+    <t>poststed</t>
+  </si>
+  <si>
+    <t>postnummer</t>
   </si>
 </sst>
 </file>
@@ -982,15 +994,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,10 +1025,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1030,125 +1054,173 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4330</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>4335</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>4330</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4330</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4330</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4335</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
